--- a/encourage_policy.xlsx
+++ b/encourage_policy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96b496742dba3504/Documents/WYN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hensinhuang/CodeSpace/PointCounter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_28E8E5812048F0DE89CE4CFFC392403D96DF4BA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A859C0A-53C2-9C42-8F6E-19AD56092586}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945B819-CEC1-3E4B-BB7A-9FE64E5E6D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="41600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>项目</t>
   </si>
@@ -400,6 +400,101 @@
 阅读正确率得分为:0
 锻炼得分为:0
 任务完成度得分为:-5
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220810</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220811</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:0
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220812</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220815</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:-5
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:-10
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220816</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:-5
+早睡得分为:0
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:-10
+锻炼得分为:20
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220818</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220817</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:-10
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220813</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220814</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:5
+早睡得分为:-5
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:0
 大项bonus得分为:0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -853,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,35 +1060,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1004,11 +1075,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H38"/>
+  <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" customHeight="1"/>
@@ -1322,13 +1420,13 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="25" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1342,9 +1440,9 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="25" customHeight="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1356,11 +1454,11 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="25" customHeight="1">
-      <c r="B5" s="37"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="41" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1374,9 +1472,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="25" customHeight="1">
-      <c r="B6" s="37"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1486,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="25" customHeight="1">
-      <c r="B7" s="37"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="13"/>
       <c r="D7" s="15"/>
       <c r="E7" s="14"/>
@@ -1400,7 +1498,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="25" customHeight="1">
-      <c r="B8" s="38"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1516,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="25" customHeight="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -1438,8 +1536,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="25" customHeight="1">
-      <c r="B10" s="40"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -1456,8 +1554,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="25" customHeight="1">
-      <c r="B11" s="40"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
@@ -1466,8 +1564,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="25" customHeight="1">
-      <c r="B12" s="40"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +1574,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="25" customHeight="1">
-      <c r="B13" s="40"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="32" t="s">
         <v>34</v>
       </c>
@@ -1488,7 +1586,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="25" customHeight="1">
-      <c r="B14" s="40"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
@@ -1500,7 +1598,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="25" customHeight="1">
-      <c r="B15" s="41"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="35" t="s">
         <v>40</v>
       </c>
@@ -1537,7 +1635,7 @@
       </c>
       <c r="E19" s="2">
         <f>SUM(C19:C53)</f>
-        <v>845</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="79" customHeight="1">
@@ -1692,40 +1790,40 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="198" customHeight="1">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="2">
         <v>50</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="150" customHeight="1">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="2">
         <v>30</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="164" customHeight="1">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="2">
         <v>25</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="25" customHeight="1">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="2">
@@ -1733,14 +1831,113 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="165" customHeight="1">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="38" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="25" customHeight="1">
+      <c r="B39" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="147" customHeight="1">
+      <c r="B40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2">
+        <v>35</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="173" customHeight="1">
+      <c r="B41" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2">
+        <v>35</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="175" customHeight="1">
+      <c r="B42" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2">
+        <v>25</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="25" customHeight="1">
+      <c r="B43" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="166" customHeight="1">
+      <c r="B44" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="166" customHeight="1">
+      <c r="B45" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2">
+        <v>35</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="199" customHeight="1">
+      <c r="B46" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2">
+        <v>25</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="153" customHeight="1">
+      <c r="B47" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/encourage_policy.xlsx
+++ b/encourage_policy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hensinhuang/CodeSpace/PointCounter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945B819-CEC1-3E4B-BB7A-9FE64E5E6D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BC0FC6-A382-754E-9235-7C29762BAC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="41600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>项目</t>
   </si>
@@ -204,9 +204,6 @@
     <t>20220716</t>
   </si>
   <si>
-    <t>休假</t>
-  </si>
-  <si>
     <t>20220725</t>
   </si>
   <si>
@@ -496,6 +493,188 @@
 锻炼得分为:0
 任务完成度得分为:0
 大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220822</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 早起得分为:0
+早睡得分为:0
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:10
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220823</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220821</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220819</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:0
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:10
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220820</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:0
+学习时长得分为:0
+背单词得分为:15
+阅读正确率得分为:-10
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:-5
+早睡得分为:0
+学习时长得分为:20
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220824</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220825</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220826</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:-5
+早睡得分为:0
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220830</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:5
+早睡得分为:0
+学习时长得分为:10
+背单词得分为:15
+阅读正确率得分为:10
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220829</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220827</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220828</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:15
+早睡得分为:0
+学习时长得分为:0
+背单词得分为:-10
+阅读正确率得分为:-10
+锻炼得分为:40
+任务完成度得分为:-10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220831</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220902</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:0
+学习时长得分为:20
+背单词得分为:15
+阅读正确率得分为:10
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220904</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220903</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:5
+早睡得分为:0
+学习时长得分为:20
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:0
+早睡得分为:0
+学习时长得分为:20
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:100</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1066,6 +1245,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,9 +1285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H47"/>
+  <dimension ref="B2:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" customHeight="1"/>
@@ -1420,13 +1599,13 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="25" customHeight="1">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1440,9 +1619,9 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="25" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1454,11 +1633,11 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="25" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1472,9 +1651,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="25" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1665,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="25" customHeight="1">
-      <c r="B7" s="42"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="13"/>
       <c r="D7" s="15"/>
       <c r="E7" s="14"/>
@@ -1498,7 +1677,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="25" customHeight="1">
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1695,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="25" customHeight="1">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -1536,8 +1715,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="25" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -1554,8 +1733,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="25" customHeight="1">
-      <c r="B11" s="45"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
@@ -1564,8 +1743,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="25" customHeight="1">
-      <c r="B12" s="45"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1753,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="25" customHeight="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="32" t="s">
         <v>34</v>
       </c>
@@ -1586,7 +1765,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="25" customHeight="1">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1777,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="25" customHeight="1">
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="35" t="s">
         <v>40</v>
       </c>
@@ -1634,8 +1813,8 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <f>SUM(C19:C53)</f>
-        <v>1060</v>
+        <f>SUM(C19:C94)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="79" customHeight="1">
@@ -1667,13 +1846,13 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
+      <c r="D22" s="39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="25" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
         <v>45</v>
@@ -1681,150 +1860,150 @@
     </row>
     <row r="24" spans="2:5" ht="189" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>40</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="153" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>45</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="150" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2">
         <v>30</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="154" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2">
         <v>45</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="154" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2">
         <v>35</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="185" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2">
         <v>225</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="159" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>40</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="156" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="175" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2">
         <v>25</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="188" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2">
         <v>45</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="198" customHeight="1">
       <c r="B34" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2">
         <v>50</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="150" customHeight="1">
       <c r="B35" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2">
         <v>30</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="164" customHeight="1">
       <c r="B36" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2">
         <v>25</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="25" customHeight="1">
       <c r="B37" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2">
         <v>20</v>
@@ -1832,112 +2011,296 @@
     </row>
     <row r="38" spans="2:4" ht="165" customHeight="1">
       <c r="B38" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="25" customHeight="1">
       <c r="B39" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>86</v>
+      <c r="D39" s="39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="147" customHeight="1">
       <c r="B40" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2">
         <v>35</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="173" customHeight="1">
       <c r="B41" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2">
         <v>35</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="175" customHeight="1">
       <c r="B42" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="25" customHeight="1">
       <c r="B43" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="166" customHeight="1">
       <c r="B44" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
         <v>20</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="166" customHeight="1">
       <c r="B45" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
         <v>35</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="199" customHeight="1">
       <c r="B46" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2">
         <v>25</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="153" customHeight="1">
       <c r="B47" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2">
         <v>40</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="179" customHeight="1">
+      <c r="B48" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="178" customHeight="1">
+      <c r="B49" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2">
+        <v>15</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="180" customHeight="1">
+      <c r="B50" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="163" customHeight="1">
+      <c r="B51" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="178" customHeight="1">
+      <c r="B52" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2">
+        <v>30</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="201" customHeight="1">
+      <c r="B53" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2">
+        <v>35</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="194" customHeight="1">
+      <c r="B54" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2">
+        <v>35</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="160" customHeight="1">
+      <c r="B55" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="2">
+        <v>130</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="193" customHeight="1">
+      <c r="B56" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="175" customHeight="1">
+      <c r="B57" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="2">
+        <v>25</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="25" customHeight="1">
+      <c r="B58" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="39">
+        <v>0</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="167" customHeight="1">
+      <c r="B59" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="2">
+        <v>50</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="173" customHeight="1">
+      <c r="B60" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2">
+        <v>35</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="172" customHeight="1">
+      <c r="B61" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="163" customHeight="1">
+      <c r="B62" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2">
+        <v>55</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="145" customHeight="1">
+      <c r="B63" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2">
+        <v>50</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="161" customHeight="1">
+      <c r="B64" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="2">
+        <v>145</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/encourage_policy.xlsx
+++ b/encourage_policy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hensinhuang/CodeSpace/PointCounter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BC0FC6-A382-754E-9235-7C29762BAC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0A57C-F01D-9845-8D28-C9B86B94BBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>项目</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>+30</t>
-  </si>
-  <si>
-    <t>英语阅读正确率</t>
   </si>
   <si>
     <t>错 2+ 题 / 全对</t>
@@ -675,6 +672,55 @@
 锻炼得分为:0
 任务完成度得分为:10
 大项bonus得分为:100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220905</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220906</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220907</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220908</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:5
+早睡得分为:0
+学习时长得分为:-20
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:-20
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:5
+早睡得分为:0
+学习时长得分为:-20
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:-15
+大项bonus得分为:0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起得分为:5
+早睡得分为:-5
+学习时长得分为:30
+背单词得分为:15
+阅读正确率得分为:0
+锻炼得分为:0
+任务完成度得分为:10
+大项bonus得分为:0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1562,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H64"/>
+  <dimension ref="B2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" customHeight="1"/>
@@ -1754,105 +1800,103 @@
     </row>
     <row r="13" spans="2:8" ht="25" customHeight="1">
       <c r="B13" s="46"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="25" customHeight="1">
       <c r="B14" s="46"/>
       <c r="C14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="25" customHeight="1">
       <c r="B15" s="47"/>
       <c r="C15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25" customHeight="1">
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="91" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
         <v>25</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2">
         <f>SUM(C19:C94)</f>
-        <v>1840</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="79" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>45</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="93" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <v>45</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="25" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="25" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2">
         <v>45</v>
@@ -1860,150 +1904,150 @@
     </row>
     <row r="24" spans="2:5" ht="189" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2">
         <v>40</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="153" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>45</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="150" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>30</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="154" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2">
         <v>45</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="154" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2">
         <v>35</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="185" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2">
         <v>225</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="159" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2">
         <v>40</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="156" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="175" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2">
         <v>25</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="188" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2">
         <v>45</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="198" customHeight="1">
       <c r="B34" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2">
         <v>50</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="150" customHeight="1">
       <c r="B35" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2">
         <v>30</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="164" customHeight="1">
       <c r="B36" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2">
         <v>25</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="25" customHeight="1">
       <c r="B37" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2">
         <v>20</v>
@@ -2011,296 +2055,334 @@
     </row>
     <row r="38" spans="2:4" ht="165" customHeight="1">
       <c r="B38" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="25" customHeight="1">
       <c r="B39" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="147" customHeight="1">
       <c r="B40" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2">
         <v>35</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="173" customHeight="1">
       <c r="B41" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2">
         <v>35</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="175" customHeight="1">
       <c r="B42" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="25" customHeight="1">
       <c r="B43" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="166" customHeight="1">
       <c r="B44" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2">
         <v>20</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="166" customHeight="1">
       <c r="B45" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
         <v>35</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="199" customHeight="1">
       <c r="B46" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
         <v>25</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="153" customHeight="1">
       <c r="B47" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
         <v>40</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="179" customHeight="1">
       <c r="B48" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2">
         <v>45</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="178" customHeight="1">
       <c r="B49" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2">
         <v>15</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="180" customHeight="1">
       <c r="B50" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2">
         <v>40</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="163" customHeight="1">
       <c r="B51" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2">
         <v>45</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="178" customHeight="1">
       <c r="B52" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="2">
         <v>30</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="201" customHeight="1">
       <c r="B53" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2">
         <v>35</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="194" customHeight="1">
       <c r="B54" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2">
         <v>35</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="160" customHeight="1">
       <c r="B55" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2">
         <v>130</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="193" customHeight="1">
       <c r="B56" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="175" customHeight="1">
       <c r="B57" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2">
         <v>25</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="25" customHeight="1">
       <c r="B58" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="39">
         <v>0</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="167" customHeight="1">
       <c r="B59" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2">
         <v>50</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="173" customHeight="1">
       <c r="B60" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2">
         <v>35</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="172" customHeight="1">
       <c r="B61" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2">
         <v>45</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="163" customHeight="1">
       <c r="B62" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2">
         <v>55</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="145" customHeight="1">
       <c r="B63" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2">
         <v>50</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="161" customHeight="1">
       <c r="B64" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2">
         <v>145</v>
       </c>
       <c r="D64" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="159" customHeight="1">
+      <c r="B65" s="37" t="s">
         <v>126</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-20</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="187" customHeight="1">
+      <c r="B66" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-15</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="189" customHeight="1">
+      <c r="B67" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="2">
+        <v>55</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="25" customHeight="1">
+      <c r="B68" s="37" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
